--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -68,6 +68,11 @@
         <fgColor rgb="00e8af5a"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ee4723"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -87,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -115,6 +120,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,14 +510,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Склад Равно "г.Якутск ООО "КОМПЛЕКТАЦИЯ" ИНН 5403061372"</t>
+          <t>Склад Равно "г.Новосибирск ООО "ТК "ЛАНКС" ИНН 3664231530 "</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>C 01.06.2022 по 30.06.2022</t>
+          <t>C 01.08.2022 по 31.08.2022</t>
         </is>
       </c>
     </row>
@@ -530,12 +538,12 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Расходы, шт</t>
+          <t>Приход, шт</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Приход, шт</t>
+          <t>Расход, шт</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -562,7 +570,7 @@
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="B5" s="6" t="n">
@@ -572,28 +580,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr"/>
       <c r="C6" s="9" t="inlineStr"/>
       <c r="D6" s="10" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
@@ -602,13 +610,13 @@
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr"/>
       <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="10" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
@@ -617,43 +625,53 @@
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>2022-06-04</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr"/>
       <c r="C8" s="9" t="inlineStr"/>
       <c r="D8" s="10" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-05</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr"/>
-      <c r="C9" s="9" t="inlineStr"/>
-      <c r="D9" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>211</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr"/>
       <c r="C10" s="9" t="inlineStr"/>
       <c r="D10" s="10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
@@ -662,13 +680,13 @@
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr"/>
       <c r="C11" s="9" t="inlineStr"/>
       <c r="D11" s="10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
@@ -677,13 +695,13 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-08-08</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr"/>
       <c r="C12" s="9" t="inlineStr"/>
       <c r="D12" s="10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr"/>
@@ -692,13 +710,13 @@
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="B13" s="9" t="inlineStr"/>
       <c r="C13" s="9" t="inlineStr"/>
       <c r="D13" s="10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
@@ -707,43 +725,53 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="B14" s="9" t="inlineStr"/>
       <c r="C14" s="9" t="inlineStr"/>
       <c r="D14" s="10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-11</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="inlineStr"/>
-      <c r="C15" s="9" t="inlineStr"/>
-      <c r="D15" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr"/>
       <c r="C16" s="9" t="inlineStr"/>
       <c r="D16" s="10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
@@ -752,13 +780,13 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="B17" s="9" t="inlineStr"/>
       <c r="C17" s="9" t="inlineStr"/>
       <c r="D17" s="10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr"/>
@@ -767,128 +795,158 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr"/>
       <c r="C18" s="9" t="inlineStr"/>
       <c r="D18" s="10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-15</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="inlineStr"/>
-      <c r="C19" s="9" t="inlineStr"/>
-      <c r="D19" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-16</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr"/>
-      <c r="C20" s="9" t="inlineStr"/>
-      <c r="D20" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-17</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="inlineStr"/>
-      <c r="C21" s="9" t="inlineStr"/>
-      <c r="D21" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr"/>
       <c r="C22" s="9" t="inlineStr"/>
       <c r="D22" s="10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-19</t>
-        </is>
-      </c>
-      <c r="B23" s="9" t="inlineStr"/>
-      <c r="C23" s="9" t="inlineStr"/>
-      <c r="D23" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>2022-06-20</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>33</v>
-      </c>
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>2022-08-20</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="inlineStr"/>
+      <c r="C24" s="9" t="inlineStr"/>
+      <c r="D24" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-08-21</t>
         </is>
       </c>
       <c r="B25" s="9" t="inlineStr"/>
       <c r="C25" s="9" t="inlineStr"/>
       <c r="D25" s="10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
@@ -897,88 +955,118 @@
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr"/>
       <c r="C26" s="9" t="inlineStr"/>
       <c r="D26" s="10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="inlineStr"/>
-      <c r="C27" s="9" t="inlineStr"/>
-      <c r="D27" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr"/>
       <c r="C28" s="9" t="inlineStr"/>
       <c r="D28" s="10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-25</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="inlineStr"/>
-      <c r="C29" s="9" t="inlineStr"/>
-      <c r="D29" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-26</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="inlineStr"/>
-      <c r="C30" s="9" t="inlineStr"/>
-      <c r="D30" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-08-27</t>
         </is>
       </c>
       <c r="B31" s="9" t="inlineStr"/>
       <c r="C31" s="9" t="inlineStr"/>
       <c r="D31" s="10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
@@ -987,56 +1075,91 @@
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-08-28</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr"/>
       <c r="C32" s="9" t="inlineStr"/>
       <c r="D32" s="10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>2022-06-29</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="inlineStr"/>
-      <c r="C33" s="9" t="inlineStr"/>
-      <c r="D33" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D35" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>33</v>
+      <c r="E35" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F35" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
